--- a/story/Activity Story 活动剧情/act5d0 Code of Brawl 喧闹法则 喧騒の掟/level_act5d0_01_beg.xlsx
+++ b/story/Activity Story 活动剧情/act5d0 Code of Brawl 喧闹法则 喧騒の掟/level_act5d0_01_beg.xlsx
@@ -1276,7 +1276,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="???"]   We got a serious emphasis on corporate culture. And today's culture buzzword is "courtesy."
+    <t xml:space="preserve">[name="???"]   We got a serious emphasis on corporate culture. And today's culture buzzword is 'courtesy.'
 </t>
   </si>
   <si>

--- a/story/Activity Story 活动剧情/act5d0 Code of Brawl 喧闹法则 喧騒の掟/level_act5d0_01_beg.xlsx
+++ b/story/Activity Story 活动剧情/act5d0 Code of Brawl 喧闹法则 喧騒の掟/level_act5d0_01_beg.xlsx
@@ -908,7 +908,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">6:44 PM \ Clear
+    <t xml:space="preserve">6:44 P.M. \ Clear
 </t>
   </si>
   <si>
